--- a/REGULAR/DESINGANO, OLIVA MALORCA.xlsx
+++ b/REGULAR/DESINGANO, OLIVA MALORCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17347916-9A58-4C60-8E5C-4D69036AD63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D4F8CB-559A-4B8E-BB8F-F786618A2AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -162,9 +162,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>DESINGANO, OLIVA MALORCA</t>
-  </si>
-  <si>
     <t>REGULAR</t>
   </si>
   <si>
@@ -178,6 +175,21 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>DESINGANO, OLIVA MALLORCA</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -554,6 +566,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -821,7 +836,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -867,25 +881,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1192,16 +1206,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C16"/>
+      <pane ySplit="3576" topLeftCell="A13" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,11 +1224,11 @@
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
@@ -1223,66 +1237,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="50"/>
+      <c r="B2" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>44837</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="50"/>
+      <c r="B4" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1308,18 +1322,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1366,7 +1380,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.4169999999999998</v>
+        <v>16.417000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1376,14 +1390,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>7.4169999999999998</v>
+        <v>17.417000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1425,7 +1439,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
-        <v>44866</v>
+        <v>44895</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -1445,7 +1459,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
-        <v>44896</v>
+        <v>44926</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
@@ -1464,28 +1478,32 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
-        <v>44927</v>
+      <c r="A14" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="B14" s="20"/>
-      <c r="C14" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C14" s="13"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>16.417000000000002</v>
+      </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>17.417000000000002</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
-        <v>44958</v>
+        <v>44957</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
@@ -1505,54 +1523,58 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
-        <v>44986</v>
-      </c>
-      <c r="B16" s="15"/>
+        <v>44985</v>
+      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="40">
+      <c r="F16" s="20"/>
+      <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H16" s="41"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
-        <v>45017</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="37"/>
+        <v>45016</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="41"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="37"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="40">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="41"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
-        <v>45047</v>
+        <v>45046</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D18" s="37"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="9"/>
@@ -1561,16 +1583,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
-        <v>45078</v>
+        <v>45077</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="37"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="9"/>
@@ -1578,15 +1602,19 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
+      <c r="A20" s="38">
+        <v>45107</v>
+      </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="37"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="9"/>
@@ -1594,15 +1622,19 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
+      <c r="A21" s="38">
+        <v>45138</v>
+      </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="37"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="9"/>
@@ -1610,15 +1642,19 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
+      <c r="A22" s="38">
+        <v>45169</v>
+      </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="37"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="9"/>
@@ -1626,15 +1662,19 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
+      <c r="A23" s="38">
+        <v>45199</v>
+      </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="37"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="9"/>
@@ -1642,31 +1682,45 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="37"/>
+      <c r="A24" s="38">
+        <v>45230</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="37">
+        <v>1</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="49">
+        <v>45230</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
+      <c r="A25" s="38">
+        <v>45260</v>
+      </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="37"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="9"/>
@@ -1674,8 +1728,12 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="38">
+        <v>45291</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="37"/>
       <c r="E26" s="9"/>
@@ -1687,10 +1745,14 @@
       <c r="H26" s="37"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="49">
+        <v>45282</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
+      <c r="A27" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="37"/>
@@ -1706,7 +1768,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
+      <c r="A28" s="38">
+        <v>45322</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="37"/>
@@ -1722,7 +1786,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
+      <c r="A29" s="38">
+        <v>45351</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="37"/>
@@ -1738,7 +1804,9 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+      <c r="A30" s="38">
+        <v>45382</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="37"/>
@@ -1754,7 +1822,9 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="A31" s="38">
+        <v>45412</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="37"/>
@@ -1770,7 +1840,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+      <c r="A32" s="38">
+        <v>45443</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="37"/>
@@ -3338,20 +3410,52 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="39"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="41"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="37"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="41"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="37"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="38"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="37"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="39"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="41"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3368,10 +3472,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3394,7 +3498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3403,8 +3507,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -3416,17 +3520,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -3489,7 +3593,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>28</v>
@@ -3504,17 +3608,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="47"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>14.834</v>
+        <v>33.834000000000003</v>
       </c>
       <c r="C7" s="44">
         <v>1</v>
